--- a/data/high_load/res_bus/vm_pu.xlsx
+++ b/data/high_load/res_bus/vm_pu.xlsx
@@ -470,28 +470,28 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D2" t="n">
         <v>0.9999999999999998</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9634539662507102</v>
+        <v>0.9628533050427801</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9500283890332416</v>
+        <v>0.9492435593643633</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9657503483195605</v>
+        <v>0.9652667155215469</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9473588474582546</v>
+        <v>0.9466834761874005</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9621611936998729</v>
+        <v>0.9616302087261833</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9409526506261418</v>
+        <v>0.9400182726223425</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +508,22 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9635053547101347</v>
+        <v>0.9632851227488003</v>
       </c>
       <c r="F3" t="n">
-        <v>0.950056741735665</v>
+        <v>0.9498637016292041</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9658175638414334</v>
+        <v>0.9656182983456167</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9475340677173257</v>
+        <v>0.9471247290471342</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9622479433109993</v>
+        <v>0.9619726968705077</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9410407359430866</v>
+        <v>0.9406151573821709</v>
       </c>
     </row>
     <row r="4">
@@ -534,28 +534,28 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9633231126435752</v>
+        <v>0.9631994673009268</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9500451622083116</v>
+        <v>0.9498295355857422</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9658428530998252</v>
+        <v>0.9655453693974437</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9476212448858399</v>
+        <v>0.9469372523740387</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9621024595096026</v>
+        <v>0.9618345291854751</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9405122731591107</v>
+        <v>0.9403836955480198</v>
       </c>
     </row>
     <row r="5">
@@ -569,25 +569,25 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9632690483184914</v>
+        <v>0.9629384815194714</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9500175776909309</v>
+        <v>0.9492732850487191</v>
       </c>
       <c r="G5" t="n">
-        <v>0.965640671244715</v>
+        <v>0.9653201658819492</v>
       </c>
       <c r="H5" t="n">
-        <v>0.947038089816746</v>
+        <v>0.9468152900819564</v>
       </c>
       <c r="I5" t="n">
-        <v>0.9618652637552298</v>
+        <v>0.9617448558545213</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9403761336581037</v>
+        <v>0.9402339691558942</v>
       </c>
     </row>
     <row r="6">
@@ -598,28 +598,28 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9631313772660585</v>
+        <v>0.9630571001791187</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9497296557461575</v>
+        <v>0.949334290924489</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9654021299389371</v>
+        <v>0.9653484568598761</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9466052885187606</v>
+        <v>0.9468408796799478</v>
       </c>
       <c r="I6" t="n">
-        <v>0.9617052848779062</v>
+        <v>0.9618357039264342</v>
       </c>
       <c r="J6" t="n">
-        <v>0.940323930868998</v>
+        <v>0.9404836289976772</v>
       </c>
     </row>
     <row r="7">
@@ -630,28 +630,28 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9628182628494255</v>
+        <v>0.9631468473456591</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9491892513666478</v>
+        <v>0.9496636538236407</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9651793851089758</v>
+        <v>0.9654088739960164</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9464756776380275</v>
+        <v>0.9466916305846326</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9615311499030195</v>
+        <v>0.9617621208241004</v>
       </c>
       <c r="J7" t="n">
-        <v>0.9399254880564294</v>
+        <v>0.9404098124447448</v>
       </c>
     </row>
     <row r="8">
@@ -662,28 +662,28 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9632359766789034</v>
+        <v>0.963179282370855</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9498149298690772</v>
+        <v>0.9496901268879848</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9655785843712268</v>
+        <v>0.9655696220565231</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9470524284725902</v>
+        <v>0.9471508711757088</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9619297599887672</v>
+        <v>0.9619504399030965</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9405573579464005</v>
+        <v>0.9405215615944825</v>
       </c>
     </row>
     <row r="9">
@@ -697,25 +697,25 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9631336922955128</v>
+        <v>0.9628344277422759</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9496681281569904</v>
+        <v>0.9491132233459779</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9656227224976317</v>
+        <v>0.9651548250897961</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9473350846357088</v>
+        <v>0.9464775063125862</v>
       </c>
       <c r="I9" t="n">
-        <v>0.9619514587533602</v>
+        <v>0.9615815081708036</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9403405144561288</v>
+        <v>0.9400763638606708</v>
       </c>
     </row>
     <row r="10">
@@ -729,25 +729,25 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9631146566059365</v>
+        <v>0.9631587616385533</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9495427798744323</v>
+        <v>0.949561454909389</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9655036387065949</v>
+        <v>0.9654108179216738</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9471028224606451</v>
+        <v>0.9468002912151918</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9618997917767144</v>
+        <v>0.961847659111562</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9404161366673677</v>
+        <v>0.9405604701186124</v>
       </c>
     </row>
     <row r="11">
@@ -758,28 +758,28 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9633007373911924</v>
+        <v>0.963149072134977</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9498061303134656</v>
+        <v>0.9494407310547923</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9655873889184593</v>
+        <v>0.9653933573413018</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9470878612438504</v>
+        <v>0.946870461547223</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9620169868154093</v>
+        <v>0.9619046100820857</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9407863975862844</v>
+        <v>0.9406629959566225</v>
       </c>
     </row>
     <row r="12">
@@ -793,25 +793,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9630569122995348</v>
+        <v>0.9629441866448353</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9494239448866093</v>
+        <v>0.9492255997777184</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9653928659172379</v>
+        <v>0.96526779487401</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9468861068388897</v>
+        <v>0.9467055391294394</v>
       </c>
       <c r="I12" t="n">
-        <v>0.961817402005552</v>
+        <v>0.9617305184947594</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9403829396770809</v>
+        <v>0.9403001429743681</v>
       </c>
     </row>
     <row r="13">
@@ -822,28 +822,28 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9630697900892571</v>
+        <v>0.9632956546749242</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9497083294439611</v>
+        <v>0.9499463909264962</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9654124548004654</v>
+        <v>0.9657810317685959</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9466588259268315</v>
+        <v>0.9475332955540404</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9616498218817147</v>
+        <v>0.9620697693492678</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9401020826472358</v>
+        <v>0.9405011929657525</v>
       </c>
     </row>
     <row r="14">
@@ -854,28 +854,28 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9635026897825449</v>
+        <v>0.9631363618482033</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9501868927981137</v>
+        <v>0.9497209005623936</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9658209940708402</v>
+        <v>0.9655489303735501</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9474140433884031</v>
+        <v>0.9470575090358051</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9621563087409919</v>
+        <v>0.9618670462251538</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9408829386169782</v>
+        <v>0.9403621292008301</v>
       </c>
     </row>
     <row r="15">
@@ -886,28 +886,28 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9630497340602072</v>
+        <v>0.9630507910148975</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9494451103385012</v>
+        <v>0.9495395086542274</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9654898872789629</v>
+        <v>0.9653496904186903</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9471588510808212</v>
+        <v>0.9466377895965593</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9618881443655293</v>
+        <v>0.9617083830871508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.9403247791194334</v>
+        <v>0.9403008450666812</v>
       </c>
     </row>
     <row r="16">
@@ -921,25 +921,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9633522423567675</v>
+        <v>0.9636342051970841</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9499357610851009</v>
+        <v>0.9504604062523557</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9656354618360466</v>
+        <v>0.9659911676592968</v>
       </c>
       <c r="H16" t="n">
-        <v>0.947102647702544</v>
+        <v>0.9476517311648961</v>
       </c>
       <c r="I16" t="n">
-        <v>0.962013040715916</v>
+        <v>0.9622748836668666</v>
       </c>
       <c r="J16" t="n">
-        <v>0.9407595923854341</v>
+        <v>0.9410045601258358</v>
       </c>
     </row>
     <row r="17">
@@ -950,28 +950,28 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9633530574752486</v>
+        <v>0.9631388670358689</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9499233652343465</v>
+        <v>0.9497902145379015</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9655476856176148</v>
+        <v>0.9654909838137242</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9468502684094875</v>
+        <v>0.9468126862977572</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9619341139123234</v>
+        <v>0.9617534123821674</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9407726351935956</v>
+        <v>0.940262353271316</v>
       </c>
     </row>
     <row r="18">
@@ -982,28 +982,28 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9633284313270795</v>
+        <v>0.9631050948937873</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9501281077581369</v>
+        <v>0.9496060897431793</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9656887655216567</v>
+        <v>0.965567652100915</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9470708370110502</v>
+        <v>0.9472297438725326</v>
       </c>
       <c r="I18" t="n">
-        <v>0.961910277823417</v>
+        <v>0.9619054851515594</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9404798047629833</v>
+        <v>0.9403063603391657</v>
       </c>
     </row>
     <row r="19">
@@ -1017,25 +1017,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9633784619812427</v>
+        <v>0.9630975618827713</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9502676045154447</v>
+        <v>0.9496175444226642</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9658269083889467</v>
+        <v>0.9655718446780509</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9473509133301101</v>
+        <v>0.9472323138876707</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9619801890920403</v>
+        <v>0.9618946966052172</v>
       </c>
       <c r="J19" t="n">
-        <v>0.94041209857876</v>
+        <v>0.9402711300220048</v>
       </c>
     </row>
     <row r="20">
@@ -1046,28 +1046,28 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9635158026739506</v>
+        <v>0.9631369226419118</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9500881876830536</v>
+        <v>0.9495248543895707</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9658699870713766</v>
+        <v>0.9654415019802115</v>
       </c>
       <c r="H20" t="n">
-        <v>0.9476602356954933</v>
+        <v>0.9469295123451872</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9622896469643445</v>
+        <v>0.9618913306148856</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9410410057163048</v>
+        <v>0.9405637376330106</v>
       </c>
     </row>
     <row r="21">
@@ -1078,28 +1078,28 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9634839483675957</v>
+        <v>0.963065038283637</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9501156328259088</v>
+        <v>0.9495247217479122</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9658276600233162</v>
+        <v>0.9653777733504217</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9475037691707467</v>
+        <v>0.946736920631004</v>
       </c>
       <c r="I21" t="n">
-        <v>0.9622024366957305</v>
+        <v>0.9617561849767713</v>
       </c>
       <c r="J21" t="n">
-        <v>0.9409327646625215</v>
+        <v>0.94034666017681</v>
       </c>
     </row>
     <row r="22">
@@ -1110,28 +1110,28 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9630267403710715</v>
+        <v>0.9628616983845458</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9493648594733994</v>
+        <v>0.9491938762478468</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9653385055921341</v>
+        <v>0.9652464833754082</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9467809254371862</v>
+        <v>0.9466737987426522</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9617780263891949</v>
+        <v>0.961630648897815</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9403687078923232</v>
+        <v>0.9400289793654943</v>
       </c>
     </row>
     <row r="23">
@@ -1148,22 +1148,22 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.963222671039229</v>
+        <v>0.9636768058119647</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9496211026637329</v>
+        <v>0.9504896792130602</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9653440264412277</v>
+        <v>0.9659631350474668</v>
       </c>
       <c r="H23" t="n">
-        <v>0.946538769351441</v>
+        <v>0.9475372638604629</v>
       </c>
       <c r="I23" t="n">
-        <v>0.9618124457951963</v>
+        <v>0.9622753764076492</v>
       </c>
       <c r="J23" t="n">
-        <v>0.9407153256874288</v>
+        <v>0.9411204529678386</v>
       </c>
     </row>
     <row r="24">
@@ -1180,22 +1180,22 @@
         <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9630014048051387</v>
+        <v>0.9632763678628603</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9493940296036918</v>
+        <v>0.950106791959746</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9652975779575785</v>
+        <v>0.9656791811050418</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9466257990489134</v>
+        <v>0.9470660076153135</v>
       </c>
       <c r="I24" t="n">
-        <v>0.9617178656159512</v>
+        <v>0.9618451526661582</v>
       </c>
       <c r="J24" t="n">
-        <v>0.940341746741613</v>
+        <v>0.9402874041463154</v>
       </c>
     </row>
     <row r="25">
@@ -1206,28 +1206,28 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9632917208882092</v>
+        <v>0.9631200822232329</v>
       </c>
       <c r="F25" t="n">
-        <v>0.949809949079753</v>
+        <v>0.9495876612472192</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9655069599724582</v>
+        <v>0.9653410089800075</v>
       </c>
       <c r="H25" t="n">
-        <v>0.946841866737637</v>
+        <v>0.9465638527939589</v>
       </c>
       <c r="I25" t="n">
-        <v>0.9619060575216533</v>
+        <v>0.9617306788033088</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9406959614743837</v>
+        <v>0.940442277424194</v>
       </c>
     </row>
     <row r="26">
@@ -1244,22 +1244,22 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9631894638568093</v>
+        <v>0.9631010866387708</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9497829748247769</v>
+        <v>0.9497638072556156</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9654884994196627</v>
+        <v>0.9654700280650695</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9468134055301907</v>
+        <v>0.9467759951096892</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9618029919937089</v>
+        <v>0.9617033386547122</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9404119216065763</v>
+        <v>0.9401471880579908</v>
       </c>
     </row>
     <row r="27">
@@ -1270,28 +1270,28 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9631190677522022</v>
+        <v>0.9633543337200916</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9497557240822491</v>
+        <v>0.9499050954291615</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9654929681534451</v>
+        <v>0.9656592200502174</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9468527092464095</v>
+        <v>0.9472074169137542</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9617589031142892</v>
+        <v>0.9620498174123329</v>
       </c>
       <c r="J27" t="n">
-        <v>0.9402390192536335</v>
+        <v>0.9407663907631081</v>
       </c>
     </row>
     <row r="28">
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9628751866463632</v>
+        <v>0.9632400564822499</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9492989462527666</v>
+        <v>0.9498821634886805</v>
       </c>
       <c r="G28" t="n">
-        <v>0.9652988655309059</v>
+        <v>0.9655059589821593</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9467261269157986</v>
+        <v>0.9467655811888027</v>
       </c>
       <c r="I28" t="n">
-        <v>0.9616283968699071</v>
+        <v>0.9618068043225614</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9399698201076007</v>
+        <v>0.9404713461705092</v>
       </c>
     </row>
     <row r="29">
@@ -1334,28 +1334,28 @@
         <v>1</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>0.9631612992763732</v>
+        <v>0.9632057900420882</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9496120705854562</v>
+        <v>0.9496952579606777</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9654571600426046</v>
+        <v>0.9654610199565171</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9468918462195699</v>
+        <v>0.9468181621686181</v>
       </c>
       <c r="I29" t="n">
-        <v>0.9618640851332569</v>
+        <v>0.9618684046852781</v>
       </c>
       <c r="J29" t="n">
-        <v>0.9405187405575768</v>
+        <v>0.9406055591602306</v>
       </c>
     </row>
     <row r="30">
@@ -1366,28 +1366,28 @@
         <v>1</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.963104117716522</v>
+        <v>0.9631076861048109</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9497058818876404</v>
+        <v>0.9494530637280945</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9654638782800108</v>
+        <v>0.9654938032231715</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9468144934356622</v>
+        <v>0.9471617367022208</v>
       </c>
       <c r="I30" t="n">
-        <v>0.9617447108784449</v>
+        <v>0.9619444649788685</v>
       </c>
       <c r="J30" t="n">
-        <v>0.9402342559944926</v>
+        <v>0.9404926728939473</v>
       </c>
     </row>
     <row r="31">
@@ -1401,25 +1401,25 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>0.963270800096077</v>
+        <v>0.9634771714273908</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9497237450242367</v>
+        <v>0.9500398429555933</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9656718130433742</v>
+        <v>0.9657137892317565</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9474268586374266</v>
+        <v>0.947237523430062</v>
       </c>
       <c r="I31" t="n">
-        <v>0.9620916821562826</v>
+        <v>0.962121025558026</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9406739660863412</v>
+        <v>0.9409524302011509</v>
       </c>
     </row>
     <row r="32">
@@ -1430,28 +1430,28 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D32" t="n">
         <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9635026375782562</v>
+        <v>0.9634090961120557</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9500883051259265</v>
+        <v>0.9499522137152044</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9657956570198986</v>
+        <v>0.9656164580091829</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9474347405983625</v>
+        <v>0.9470293309303879</v>
       </c>
       <c r="I32" t="n">
-        <v>0.9622008629965052</v>
+        <v>0.9620314830862645</v>
       </c>
       <c r="J32" t="n">
-        <v>0.940997153946202</v>
+        <v>0.9408888020172856</v>
       </c>
     </row>
     <row r="33">
@@ -1462,28 +1462,28 @@
         <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9632660730005886</v>
+        <v>0.9631612735533284</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9497944562430946</v>
+        <v>0.9496256112309603</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9656527362764595</v>
+        <v>0.9656179069763741</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9472996961441492</v>
+        <v>0.9473619574236655</v>
       </c>
       <c r="I33" t="n">
-        <v>0.9620250939027182</v>
+        <v>0.9620108557756402</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9405992023498307</v>
+        <v>0.9404936471274812</v>
       </c>
     </row>
     <row r="34">
@@ -1494,28 +1494,28 @@
         <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.9634303064079084</v>
+        <v>0.9629977160776571</v>
       </c>
       <c r="F34" t="n">
-        <v>0.950097284217453</v>
+        <v>0.9495792719031453</v>
       </c>
       <c r="G34" t="n">
-        <v>0.965677192298921</v>
+        <v>0.9653102384082136</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9470659325738728</v>
+        <v>0.946479381585676</v>
       </c>
       <c r="I34" t="n">
-        <v>0.9620287005793127</v>
+        <v>0.9615748617763453</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9408438362061375</v>
+        <v>0.9400542908471942</v>
       </c>
     </row>
     <row r="35">
@@ -1529,25 +1529,25 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E35" t="n">
-        <v>0.9633505241321232</v>
+        <v>0.9631373131530425</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9501211885945764</v>
+        <v>0.9495202468102338</v>
       </c>
       <c r="G35" t="n">
-        <v>0.965681905499449</v>
+        <v>0.9654136592855947</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9470594779314019</v>
+        <v>0.9468519231078568</v>
       </c>
       <c r="I35" t="n">
-        <v>0.9619090907546076</v>
+        <v>0.9618613437597894</v>
       </c>
       <c r="J35" t="n">
-        <v>0.940487712607185</v>
+        <v>0.9405503352466881</v>
       </c>
     </row>
     <row r="36">
@@ -1558,28 +1558,28 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9629317985405199</v>
+        <v>0.9632075957117869</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9491426262923128</v>
+        <v>0.9497178084978493</v>
       </c>
       <c r="G36" t="n">
-        <v>0.965258255617449</v>
+        <v>0.9655859397532992</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9467611739529143</v>
+        <v>0.9471733203864354</v>
       </c>
       <c r="I36" t="n">
-        <v>0.9617541369886204</v>
+        <v>0.9619581290295134</v>
       </c>
       <c r="J36" t="n">
-        <v>0.9403160184749273</v>
+        <v>0.9405224172819939</v>
       </c>
     </row>
     <row r="37">
@@ -1590,28 +1590,28 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9635093010218999</v>
+        <v>0.9632024435218028</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9501492632939685</v>
+        <v>0.9497982606892119</v>
       </c>
       <c r="G37" t="n">
-        <v>0.965743583023727</v>
+        <v>0.9655198462005936</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9472143943493614</v>
+        <v>0.9468911785884174</v>
       </c>
       <c r="I37" t="n">
-        <v>0.9621339673997886</v>
+        <v>0.9618324488342109</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9410145405544509</v>
+        <v>0.9404234892939723</v>
       </c>
     </row>
     <row r="38">
@@ -1622,28 +1622,28 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D38" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9634449800235073</v>
+        <v>0.9634305754389599</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9500140016259428</v>
+        <v>0.9501693908212572</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9658499848910032</v>
+        <v>0.9658186891493501</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9476738723883884</v>
+        <v>0.9474245597107668</v>
       </c>
       <c r="I38" t="n">
-        <v>0.9622536156692646</v>
+        <v>0.9620994673377287</v>
       </c>
       <c r="J38" t="n">
-        <v>0.9409179992428099</v>
+        <v>0.9406999985189174</v>
       </c>
     </row>
     <row r="39">
@@ -1654,28 +1654,28 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9630143806610337</v>
+        <v>0.9635184701141186</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9494951719269531</v>
+        <v>0.9503835882618471</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9653768746841407</v>
+        <v>0.965949207759767</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9467661128878144</v>
+        <v>0.9476031914903297</v>
       </c>
       <c r="I39" t="n">
-        <v>0.9617064211189076</v>
+        <v>0.9621638369477621</v>
       </c>
       <c r="J39" t="n">
-        <v>0.9401664124417004</v>
+        <v>0.9407165208819298</v>
       </c>
     </row>
     <row r="40">
@@ -1692,22 +1692,22 @@
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9635169809864799</v>
+        <v>0.9629885933383937</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9502223069881549</v>
+        <v>0.9493006376150773</v>
       </c>
       <c r="G40" t="n">
-        <v>0.9657073161745261</v>
+        <v>0.9653488015780405</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9470332602161018</v>
+        <v>0.9468749571250165</v>
       </c>
       <c r="I40" t="n">
-        <v>0.9620487787906691</v>
+        <v>0.9618027934452936</v>
       </c>
       <c r="J40" t="n">
-        <v>0.9409373248201612</v>
+        <v>0.9403498330765804</v>
       </c>
     </row>
     <row r="41">
@@ -1721,25 +1721,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9630591919742718</v>
+        <v>0.9632710287573474</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9495325257037828</v>
+        <v>0.9498407885618223</v>
       </c>
       <c r="G41" t="n">
-        <v>0.965314042262044</v>
+        <v>0.9656640129747246</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9465372681803013</v>
+        <v>0.9472863097092359</v>
       </c>
       <c r="I41" t="n">
-        <v>0.9616720891881144</v>
+        <v>0.9620125652365898</v>
       </c>
       <c r="J41" t="n">
-        <v>0.9402911672231563</v>
+        <v>0.9405745471173873</v>
       </c>
     </row>
     <row r="42">
@@ -1750,28 +1750,28 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9630171923977869</v>
+        <v>0.9633600920376507</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9493002610580147</v>
+        <v>0.9498429696878031</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9654000561308872</v>
+        <v>0.9655586866495313</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9470329361627745</v>
+        <v>0.9469648095893266</v>
       </c>
       <c r="I42" t="n">
-        <v>0.9618615014688843</v>
+        <v>0.9620024150586066</v>
       </c>
       <c r="J42" t="n">
-        <v>0.9403698972050507</v>
+        <v>0.9408651822017862</v>
       </c>
     </row>
     <row r="43">
@@ -1782,28 +1782,28 @@
         <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9632602150294652</v>
+        <v>0.9632130622455267</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9497541588884438</v>
+        <v>0.9498381424485525</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9655822522386636</v>
+        <v>0.9655029812134619</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9471269189103202</v>
+        <v>0.9468019757098237</v>
       </c>
       <c r="I43" t="n">
-        <v>0.9619880597982008</v>
+        <v>0.961809823961434</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9406595734638076</v>
+        <v>0.9404440656920501</v>
       </c>
     </row>
     <row r="44">
@@ -1814,28 +1814,28 @@
         <v>1</v>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E44" t="n">
-        <v>0.9633125121702529</v>
+        <v>0.9633666584243805</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9499465049794381</v>
+        <v>0.9500785025095699</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9656920940621708</v>
+        <v>0.9656631527651289</v>
       </c>
       <c r="H44" t="n">
-        <v>0.947263862120756</v>
+        <v>0.9470448838308602</v>
       </c>
       <c r="I44" t="n">
-        <v>0.9620265545890259</v>
+        <v>0.9619406457234758</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9406393243677843</v>
+        <v>0.9405979463375977</v>
       </c>
     </row>
     <row r="45">
@@ -1846,28 +1846,28 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0.9631135717194124</v>
+        <v>0.9629585430051051</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9495065492946662</v>
+        <v>0.9495080889887042</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9653003991863986</v>
+        <v>0.9652691708165684</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9465215423818926</v>
+        <v>0.9464268474109525</v>
       </c>
       <c r="I45" t="n">
-        <v>0.9617401535922127</v>
+        <v>0.961557174283298</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9405133478825241</v>
+        <v>0.9400532571224673</v>
       </c>
     </row>
     <row r="46">
@@ -1884,22 +1884,22 @@
         <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9629744051824468</v>
+        <v>0.963323425259494</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9493507825903679</v>
+        <v>0.9497958767187894</v>
       </c>
       <c r="G46" t="n">
-        <v>0.965337129641431</v>
+        <v>0.9656569181798625</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9467887498841773</v>
+        <v>0.9473106335357576</v>
       </c>
       <c r="I46" t="n">
-        <v>0.961743742105919</v>
+        <v>0.9621008842194494</v>
       </c>
       <c r="J46" t="n">
-        <v>0.9402570413780921</v>
+        <v>0.9408179991585404</v>
       </c>
     </row>
     <row r="47">
@@ -1913,25 +1913,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9636704175983576</v>
+        <v>0.9630981335400383</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9504428429414916</v>
+        <v>0.9496143977709551</v>
       </c>
       <c r="G47" t="n">
-        <v>0.966026389301342</v>
+        <v>0.9655118360451712</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9477754060054131</v>
+        <v>0.9470526648230692</v>
       </c>
       <c r="I47" t="n">
-        <v>0.9623599431679097</v>
+        <v>0.9618611763969538</v>
       </c>
       <c r="J47" t="n">
-        <v>0.9411388853251651</v>
+        <v>0.9403491196638476</v>
       </c>
     </row>
     <row r="48">
@@ -1942,28 +1942,28 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9628958554479191</v>
+        <v>0.9631045955333346</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9492591269200069</v>
+        <v>0.9494700686133639</v>
       </c>
       <c r="G48" t="n">
-        <v>0.9653049552160794</v>
+        <v>0.9654880127535784</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9467857230651</v>
+        <v>0.9471257962123809</v>
       </c>
       <c r="I48" t="n">
-        <v>0.9616737594313296</v>
+        <v>0.9619268648244358</v>
       </c>
       <c r="J48" t="n">
-        <v>0.9400478051940999</v>
+        <v>0.9404751198368707</v>
       </c>
     </row>
     <row r="49">
@@ -1977,25 +1977,25 @@
         <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9634115659431975</v>
+        <v>0.9630041231354897</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9502280742926776</v>
+        <v>0.9492601155088858</v>
       </c>
       <c r="G49" t="n">
-        <v>0.9658207057122343</v>
+        <v>0.9651729749012788</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9473696663690748</v>
+        <v>0.9463844768291997</v>
       </c>
       <c r="I49" t="n">
-        <v>0.9620467147773386</v>
+        <v>0.9616780022333346</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9405946548583095</v>
+        <v>0.9404620424931908</v>
       </c>
     </row>
     <row r="50">
@@ -2009,25 +2009,25 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E50" t="n">
-        <v>0.9633690862588384</v>
+        <v>0.9634311603424197</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9501226519025394</v>
+        <v>0.950031428538321</v>
       </c>
       <c r="G50" t="n">
-        <v>0.9656762641485235</v>
+        <v>0.9656965253126414</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9470391388442373</v>
+        <v>0.9471924403432443</v>
       </c>
       <c r="I50" t="n">
-        <v>0.961936048583895</v>
+        <v>0.9620722724162289</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9405896234444907</v>
+        <v>0.9408494256185213</v>
       </c>
     </row>
     <row r="51">
@@ -2038,28 +2038,28 @@
         <v>1</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9630658846835776</v>
+        <v>0.9631102053591346</v>
       </c>
       <c r="F51" t="n">
-        <v>0.949634183308761</v>
+        <v>0.9494700300416851</v>
       </c>
       <c r="G51" t="n">
-        <v>0.9653812209984142</v>
+        <v>0.965319157492202</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9466370312171768</v>
+        <v>0.9466160772423843</v>
       </c>
       <c r="I51" t="n">
-        <v>0.9616758841986729</v>
+        <v>0.9617844690523017</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9402030334883504</v>
+        <v>0.940553134246456</v>
       </c>
     </row>
     <row r="52">
@@ -2070,28 +2070,28 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>0.9630971360423537</v>
+        <v>0.96337544821607</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9497645377403654</v>
+        <v>0.9499543904443268</v>
       </c>
       <c r="G52" t="n">
-        <v>0.9654538294410615</v>
+        <v>0.9656966609966547</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9467258524589006</v>
+        <v>0.9472697448234718</v>
       </c>
       <c r="I52" t="n">
-        <v>0.9616862844448739</v>
+        <v>0.9620881392134633</v>
       </c>
       <c r="J52" t="n">
-        <v>0.940145703672445</v>
+        <v>0.9408201804150523</v>
       </c>
     </row>
     <row r="53">
@@ -2105,25 +2105,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9634093544822776</v>
+        <v>0.9632808274268334</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9499921824359787</v>
+        <v>0.9499725163106926</v>
       </c>
       <c r="G53" t="n">
-        <v>0.9658099168914644</v>
+        <v>0.9655738115296528</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9475743533605153</v>
+        <v>0.9468804360662851</v>
       </c>
       <c r="I53" t="n">
-        <v>0.9621889164202908</v>
+        <v>0.9618496765222195</v>
       </c>
       <c r="J53" t="n">
-        <v>0.9408213176200835</v>
+        <v>0.9404864395082022</v>
       </c>
     </row>
     <row r="54">
@@ -2134,28 +2134,28 @@
         <v>1</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9631442381056148</v>
+        <v>0.9631050737973527</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9496691602291157</v>
+        <v>0.9497353251241232</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9654680300350791</v>
+        <v>0.9654718280551658</v>
       </c>
       <c r="H54" t="n">
-        <v>0.94686365107394</v>
+        <v>0.946810483678604</v>
       </c>
       <c r="I54" t="n">
-        <v>0.9618180218383127</v>
+        <v>0.9617250669265922</v>
       </c>
       <c r="J54" t="n">
-        <v>0.94040743599596</v>
+        <v>0.9401785779727162</v>
       </c>
     </row>
     <row r="55">
@@ -2169,25 +2169,25 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9629856263078064</v>
+        <v>0.963067019135322</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9495382834567718</v>
+        <v>0.9496930002211069</v>
       </c>
       <c r="G55" t="n">
-        <v>0.9653102723027791</v>
+        <v>0.9655192033972921</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9465195898987291</v>
+        <v>0.9469958048491961</v>
       </c>
       <c r="I55" t="n">
-        <v>0.9615890026636423</v>
+        <v>0.9617770411950328</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9400569594642509</v>
+        <v>0.9401508447019586</v>
       </c>
     </row>
     <row r="56">
@@ -2204,22 +2204,22 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9629752786983873</v>
+        <v>0.9632001513595109</v>
       </c>
       <c r="F56" t="n">
-        <v>0.949486956480291</v>
+        <v>0.9498275838714463</v>
       </c>
       <c r="G56" t="n">
-        <v>0.9652270096859031</v>
+        <v>0.9656452688050254</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9463198171883077</v>
+        <v>0.9472426275999029</v>
       </c>
       <c r="I56" t="n">
-        <v>0.961536497460158</v>
+        <v>0.9619357677377062</v>
       </c>
       <c r="J56" t="n">
-        <v>0.9400976492231042</v>
+        <v>0.940385322720093</v>
       </c>
     </row>
     <row r="57">
@@ -2230,28 +2230,28 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9632737413921406</v>
+        <v>0.9634890084131312</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9497024748969067</v>
+        <v>0.9501247574473283</v>
       </c>
       <c r="G57" t="n">
-        <v>0.9655141468634366</v>
+        <v>0.9657320661590969</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9469705901821214</v>
+        <v>0.9472071585800367</v>
       </c>
       <c r="I57" t="n">
-        <v>0.9619718622705767</v>
+        <v>0.9620984402649788</v>
       </c>
       <c r="J57" t="n">
-        <v>0.9407667663593073</v>
+        <v>0.9409141776707655</v>
       </c>
     </row>
     <row r="58">
@@ -2262,28 +2262,28 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>0.9632561062453714</v>
+        <v>0.9634111821352405</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9497517185945296</v>
+        <v>0.9499660886101683</v>
       </c>
       <c r="G58" t="n">
-        <v>0.9654720557472085</v>
+        <v>0.9656980339047474</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9467950798321765</v>
+        <v>0.9472614340091822</v>
       </c>
       <c r="I58" t="n">
-        <v>0.9618738202737581</v>
+        <v>0.9621122786105987</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9406450096055774</v>
+        <v>0.9409016757774468</v>
       </c>
     </row>
     <row r="59">
@@ -2300,22 +2300,22 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9630736944155355</v>
+        <v>0.9631937991869304</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9497014666846231</v>
+        <v>0.9498356750000211</v>
       </c>
       <c r="G59" t="n">
-        <v>0.9654161053420843</v>
+        <v>0.9655034891242816</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9466765388306525</v>
+        <v>0.9468054683087614</v>
       </c>
       <c r="I59" t="n">
-        <v>0.9616566639047854</v>
+        <v>0.9617928669465051</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9401051333200082</v>
+        <v>0.9403891877309263</v>
       </c>
     </row>
     <row r="60">
@@ -2326,28 +2326,28 @@
         <v>1</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>0.9632939086216114</v>
+        <v>0.9632694354002971</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9497717632948255</v>
+        <v>0.9496972066612225</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9656513537716209</v>
+        <v>0.9654555626920546</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9473174370744413</v>
+        <v>0.9467991779619831</v>
       </c>
       <c r="I60" t="n">
-        <v>0.9620849026009218</v>
+        <v>0.961907324434333</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9407626917608122</v>
+        <v>0.9407424897683727</v>
       </c>
     </row>
     <row r="61">
@@ -2361,25 +2361,25 @@
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E61" t="n">
-        <v>0.9630771691018618</v>
+        <v>0.9631015991591285</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9497280021861746</v>
+        <v>0.949599242039557</v>
       </c>
       <c r="G61" t="n">
-        <v>0.9655129573223751</v>
+        <v>0.9653262232068179</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9469418011677919</v>
+        <v>0.9465074773129258</v>
       </c>
       <c r="I61" t="n">
-        <v>0.9617558907474818</v>
+        <v>0.9616994855863367</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9401407362063873</v>
+        <v>0.9404041292946139</v>
       </c>
     </row>
     <row r="62">
@@ -2396,22 +2396,22 @@
         <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9633950569422679</v>
+        <v>0.9632480612630322</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9499296819453491</v>
+        <v>0.9498540511185862</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9657515214310304</v>
+        <v>0.9656126254406555</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9474610750703202</v>
+        <v>0.9471183017773408</v>
       </c>
       <c r="I62" t="n">
-        <v>0.9621670471622863</v>
+        <v>0.9619261764651015</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9408681627116687</v>
+        <v>0.9404806540429524</v>
       </c>
     </row>
     <row r="63">
@@ -2422,28 +2422,28 @@
         <v>1</v>
       </c>
       <c r="C63" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9631722923714527</v>
+        <v>0.9631578604716768</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9498436164418324</v>
+        <v>0.9498876568931536</v>
       </c>
       <c r="G63" t="n">
-        <v>0.9656346089874457</v>
+        <v>0.9654486505490416</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9471941946209586</v>
+        <v>0.9465876064279768</v>
       </c>
       <c r="I63" t="n">
-        <v>0.9618936202037227</v>
+        <v>0.9616602085619792</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9403059269877859</v>
+        <v>0.940204825381848</v>
       </c>
     </row>
     <row r="64">
@@ -2457,25 +2457,25 @@
         <v>1</v>
       </c>
       <c r="D64" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9635086125873971</v>
+        <v>0.9633834992409489</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9501989943103034</v>
+        <v>0.9499631945450498</v>
       </c>
       <c r="G64" t="n">
-        <v>0.9657810380107185</v>
+        <v>0.9656408651627381</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9472791135943587</v>
+        <v>0.9470913487043219</v>
       </c>
       <c r="I64" t="n">
-        <v>0.962122695251687</v>
+        <v>0.962026898571013</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9409156130799088</v>
+        <v>0.94081290090751</v>
       </c>
     </row>
     <row r="65">
@@ -2486,28 +2486,28 @@
         <v>1</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D65" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9632042405877592</v>
+        <v>0.9630451696606049</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9498863586280765</v>
+        <v>0.9497305886062724</v>
       </c>
       <c r="G65" t="n">
-        <v>0.9656342899584374</v>
+        <v>0.9654311748170842</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9471504336538377</v>
+        <v>0.9466918077619403</v>
       </c>
       <c r="I65" t="n">
-        <v>0.9618742535367949</v>
+        <v>0.961653403161685</v>
       </c>
       <c r="J65" t="n">
-        <v>0.9402911257202292</v>
+        <v>0.9400801186546567</v>
       </c>
     </row>
     <row r="66">
@@ -2521,25 +2521,25 @@
         <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>0.9633623515542503</v>
+        <v>0.962944046918388</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9500174748275216</v>
+        <v>0.9493214753659266</v>
       </c>
       <c r="G66" t="n">
-        <v>0.9657518080705861</v>
+        <v>0.9653702317485819</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9473730812567165</v>
+        <v>0.9469200660078145</v>
       </c>
       <c r="I66" t="n">
-        <v>0.9620698292923018</v>
+        <v>0.9617461603412085</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9406613449762345</v>
+        <v>0.9401329710424473</v>
       </c>
     </row>
     <row r="67">
@@ -2553,25 +2553,25 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9636487140978932</v>
+        <v>0.9633819559495347</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9504118523133641</v>
+        <v>0.9498310422888924</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9659614418518377</v>
+        <v>0.9657703999415134</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9476114848060179</v>
+        <v>0.9476168700510049</v>
       </c>
       <c r="I67" t="n">
-        <v>0.9622913970190016</v>
+        <v>0.9622328523303381</v>
       </c>
       <c r="J67" t="n">
-        <v>0.941095058350602</v>
+        <v>0.9409119526668901</v>
       </c>
     </row>
     <row r="68">
@@ -2582,28 +2582,28 @@
         <v>1</v>
       </c>
       <c r="C68" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>0.9632834090497829</v>
+        <v>0.9631305880230016</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9496260029607715</v>
+        <v>0.9496982183351127</v>
       </c>
       <c r="G68" t="n">
-        <v>0.9655662156710321</v>
+        <v>0.9653720480814226</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9472070705003763</v>
+        <v>0.946546384830527</v>
       </c>
       <c r="I68" t="n">
-        <v>0.9620722146125367</v>
+        <v>0.9617049487338387</v>
       </c>
       <c r="J68" t="n">
-        <v>0.9408347347177911</v>
+        <v>0.9403817691791233</v>
       </c>
     </row>
     <row r="69">
@@ -2617,25 +2617,25 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9633027819349124</v>
+        <v>0.9630871455314352</v>
       </c>
       <c r="F69" t="n">
-        <v>0.949877571894325</v>
+        <v>0.9496096514067827</v>
       </c>
       <c r="G69" t="n">
-        <v>0.965589763728958</v>
+        <v>0.9654742948564959</v>
       </c>
       <c r="H69" t="n">
-        <v>0.9470235699651491</v>
+        <v>0.9469434152569483</v>
       </c>
       <c r="I69" t="n">
-        <v>0.9619539130756131</v>
+        <v>0.961811917193411</v>
       </c>
       <c r="J69" t="n">
-        <v>0.9406593678214865</v>
+        <v>0.940309066350057</v>
       </c>
     </row>
     <row r="70">
@@ -2646,28 +2646,28 @@
         <v>1</v>
       </c>
       <c r="C70" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>0.9635481662354383</v>
+        <v>0.9634245038234174</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9501330421791404</v>
+        <v>0.9499579899654774</v>
       </c>
       <c r="G70" t="n">
-        <v>0.9659162698367072</v>
+        <v>0.965761699130344</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9477546826984894</v>
+        <v>0.9474623547080386</v>
       </c>
       <c r="I70" t="n">
-        <v>0.9623378839411784</v>
+        <v>0.9621886655474094</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9410927320130691</v>
+        <v>0.9409323816312271</v>
       </c>
     </row>
     <row r="71">
@@ -2678,28 +2678,28 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
         <v>0.9999999999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.963354023549573</v>
+        <v>0.9634487817305992</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9498118113671926</v>
+        <v>0.9500207888478829</v>
       </c>
       <c r="G71" t="n">
-        <v>0.9656260413324809</v>
+        <v>0.965725298288727</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9472012703426286</v>
+        <v>0.9472907628529678</v>
       </c>
       <c r="I71" t="n">
-        <v>0.9620865356096828</v>
+        <v>0.962134608058283</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9408838708743601</v>
+        <v>0.9409401214390277</v>
       </c>
     </row>
   </sheetData>
